--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_6.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47015.50734382178</v>
+        <v>-47015.50734382177</v>
       </c>
     </row>
     <row r="7">
@@ -26332,10 +26334,10 @@
         <v>32252.22165943391</v>
       </c>
       <c r="I2" t="n">
+        <v>32252.22165943392</v>
+      </c>
+      <c r="J2" t="n">
         <v>32252.22165943391</v>
-      </c>
-      <c r="J2" t="n">
-        <v>32252.22165943392</v>
       </c>
       <c r="K2" t="n">
         <v>32252.22165943392</v>
@@ -26344,7 +26346,7 @@
         <v>32252.22165943391</v>
       </c>
       <c r="M2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="N2" t="n">
         <v>32252.22165943391</v>
@@ -26534,16 +26536,16 @@
         <v>5375.370276572314</v>
       </c>
       <c r="G6" t="n">
-        <v>5375.370276572314</v>
+        <v>5375.370276572317</v>
       </c>
       <c r="H6" t="n">
         <v>5375.37027657231</v>
       </c>
       <c r="I6" t="n">
+        <v>5375.370276572314</v>
+      </c>
+      <c r="J6" t="n">
         <v>5375.37027657231</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5375.370276572314</v>
       </c>
       <c r="K6" t="n">
         <v>5375.370276572314</v>
@@ -26552,13 +26554,13 @@
         <v>5375.37027657231</v>
       </c>
       <c r="M6" t="n">
-        <v>5375.37027657231</v>
+        <v>5375.370276572317</v>
       </c>
       <c r="N6" t="n">
         <v>5375.37027657231</v>
       </c>
       <c r="O6" t="n">
-        <v>5375.370276572314</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="P6" t="n">
         <v>5375.37027657231</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47015.50734382177</v>
+        <v>-173776.4612130868</v>
       </c>
     </row>
     <row r="7">
@@ -26319,7 +26319,7 @@
         <v>32252.22165943391</v>
       </c>
       <c r="D2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="E2" t="n">
         <v>32252.22165943391</v>
@@ -26334,13 +26334,13 @@
         <v>32252.22165943391</v>
       </c>
       <c r="I2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="J2" t="n">
         <v>32252.22165943391</v>
       </c>
       <c r="K2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="L2" t="n">
         <v>32252.22165943391</v>
@@ -26349,13 +26349,13 @@
         <v>32252.22165943392</v>
       </c>
       <c r="N2" t="n">
+        <v>32252.22165943392</v>
+      </c>
+      <c r="O2" t="n">
         <v>32252.22165943391</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>32252.22165943392</v>
-      </c>
-      <c r="P2" t="n">
-        <v>32252.22165943391</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342769</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342769</v>
+        <v>-43402.90369346246</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342769</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="E6" t="n">
-        <v>5375.37027657231</v>
+        <v>-9775.303693462454</v>
       </c>
       <c r="F6" t="n">
-        <v>5375.370276572314</v>
+        <v>-9775.303693462451</v>
       </c>
       <c r="G6" t="n">
-        <v>5375.370276572317</v>
+        <v>-9775.303693462451</v>
       </c>
       <c r="H6" t="n">
-        <v>5375.37027657231</v>
+        <v>-9775.303693462454</v>
       </c>
       <c r="I6" t="n">
-        <v>5375.370276572314</v>
+        <v>-9775.303693462454</v>
       </c>
       <c r="J6" t="n">
-        <v>5375.37027657231</v>
+        <v>-9775.303693462454</v>
       </c>
       <c r="K6" t="n">
-        <v>5375.370276572314</v>
+        <v>-9775.303693462454</v>
       </c>
       <c r="L6" t="n">
-        <v>5375.37027657231</v>
+        <v>-9775.303693462454</v>
       </c>
       <c r="M6" t="n">
-        <v>5375.370276572317</v>
+        <v>-9775.303693462451</v>
       </c>
       <c r="N6" t="n">
-        <v>5375.37027657231</v>
+        <v>-9775.303693462451</v>
       </c>
       <c r="O6" t="n">
-        <v>5375.370276572321</v>
+        <v>-9775.303693462454</v>
       </c>
       <c r="P6" t="n">
-        <v>5375.37027657231</v>
+        <v>-9775.303693462451</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173776.4612130868</v>
+        <v>-59691.60273074831</v>
       </c>
     </row>
     <row r="7">
@@ -26322,19 +26322,19 @@
         <v>32252.22165943392</v>
       </c>
       <c r="E2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="F2" t="n">
         <v>32252.22165943392</v>
       </c>
       <c r="G2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="H2" t="n">
         <v>32252.22165943391</v>
       </c>
       <c r="I2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="J2" t="n">
         <v>32252.22165943391</v>
@@ -26346,7 +26346,7 @@
         <v>32252.22165943391</v>
       </c>
       <c r="M2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="N2" t="n">
         <v>32252.22165943392</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43402.90369346245</v>
+        <v>-29767.29712043117</v>
       </c>
       <c r="C6" t="n">
-        <v>-43402.90369346246</v>
+        <v>-29767.29712043117</v>
       </c>
       <c r="D6" t="n">
-        <v>-43402.90369346245</v>
+        <v>-29767.29712043116</v>
       </c>
       <c r="E6" t="n">
-        <v>-9775.303693462454</v>
+        <v>3860.302879568837</v>
       </c>
       <c r="F6" t="n">
-        <v>-9775.303693462451</v>
+        <v>3860.302879568841</v>
       </c>
       <c r="G6" t="n">
-        <v>-9775.303693462451</v>
+        <v>3860.302879568834</v>
       </c>
       <c r="H6" t="n">
-        <v>-9775.303693462454</v>
+        <v>3860.302879568834</v>
       </c>
       <c r="I6" t="n">
-        <v>-9775.303693462454</v>
+        <v>3860.302879568841</v>
       </c>
       <c r="J6" t="n">
-        <v>-9775.303693462454</v>
+        <v>3860.302879568834</v>
       </c>
       <c r="K6" t="n">
-        <v>-9775.303693462454</v>
+        <v>3860.302879568834</v>
       </c>
       <c r="L6" t="n">
-        <v>-9775.303693462454</v>
+        <v>3860.302879568834</v>
       </c>
       <c r="M6" t="n">
-        <v>-9775.303693462451</v>
+        <v>3860.302879568834</v>
       </c>
       <c r="N6" t="n">
-        <v>-9775.303693462451</v>
+        <v>3860.302879568837</v>
       </c>
       <c r="O6" t="n">
-        <v>-9775.303693462454</v>
+        <v>3860.302879568834</v>
       </c>
       <c r="P6" t="n">
-        <v>-9775.303693462451</v>
+        <v>3860.302879568837</v>
       </c>
     </row>
   </sheetData>
